--- a/public/Contoh_Format_Import_Ekraf.xlsx
+++ b/public/Contoh_Format_Import_Ekraf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyBook Prime E7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB8851-38B4-4ED8-A458-5B0D5ABFF3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FF89DB-436A-4BD4-85EB-77A3F142DCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F76566E-1BCE-4004-82CB-D8983951D299}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Nama Usaha</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>https://tokopedia.com</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Modal Usaha</t>
+  </si>
+  <si>
+    <t>Omzet</t>
+  </si>
+  <si>
+    <t>Banjarnegara</t>
   </si>
 </sst>
 </file>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B915D95D-FD3F-4B1A-8636-E877E45247AF}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,14 +565,15 @@
     <col min="1" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="6" customWidth="1"/>
     <col min="4" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="7" width="38.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="10" width="26.109375" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" style="6" customWidth="1"/>
-    <col min="12" max="18" width="26.109375" customWidth="1"/>
+    <col min="6" max="8" width="38.33203125" customWidth="1"/>
+    <col min="9" max="10" width="26.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="13" width="26.109375" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="6" customWidth="1"/>
+    <col min="15" max="21" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,43 +593,52 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -636,54 +658,63 @@
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>25000000</v>
+      </c>
+      <c r="K2" s="3">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9BA9FDD5-FAED-41C9-89D7-B7E470363D5C}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{0E7AC36D-55A0-4892-8215-ED3560474760}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{3CD6B3A3-5515-4D79-BF64-CB1FCE7B08DD}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{F314FA28-9396-4299-843E-4BF4409399F2}"/>
-    <hyperlink ref="M2" r:id="rId5" xr:uid="{3179AFD8-2E4E-48A3-A84C-DBB4D6AF2997}"/>
-    <hyperlink ref="N2" r:id="rId6" xr:uid="{501FAA38-C2B6-426D-99A0-9A3C667CAD08}"/>
-    <hyperlink ref="O2" r:id="rId7" xr:uid="{F5516A26-DABC-4408-906C-4B9EE0CE8B83}"/>
-    <hyperlink ref="P2" r:id="rId8" xr:uid="{FB997DBE-F39D-4EAD-9FAB-59F259EA29B6}"/>
-    <hyperlink ref="Q2" r:id="rId9" xr:uid="{03EC0712-5189-4484-82E8-DA5939870EA1}"/>
-    <hyperlink ref="R2" r:id="rId10" xr:uid="{46C592F8-34F5-4737-8DFF-62659C9AEE3B}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{0E7AC36D-55A0-4892-8215-ED3560474760}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{3CD6B3A3-5515-4D79-BF64-CB1FCE7B08DD}"/>
+    <hyperlink ref="O2" r:id="rId4" xr:uid="{F314FA28-9396-4299-843E-4BF4409399F2}"/>
+    <hyperlink ref="P2" r:id="rId5" xr:uid="{3179AFD8-2E4E-48A3-A84C-DBB4D6AF2997}"/>
+    <hyperlink ref="Q2" r:id="rId6" xr:uid="{501FAA38-C2B6-426D-99A0-9A3C667CAD08}"/>
+    <hyperlink ref="R2" r:id="rId7" xr:uid="{F5516A26-DABC-4408-906C-4B9EE0CE8B83}"/>
+    <hyperlink ref="S2" r:id="rId8" xr:uid="{FB997DBE-F39D-4EAD-9FAB-59F259EA29B6}"/>
+    <hyperlink ref="T2" r:id="rId9" xr:uid="{03EC0712-5189-4484-82E8-DA5939870EA1}"/>
+    <hyperlink ref="U2" r:id="rId10" xr:uid="{46C592F8-34F5-4737-8DFF-62659C9AEE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
